--- a/resultados/7-resultados-consolidados.xlsx
+++ b/resultados/7-resultados-consolidados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="7-distribucion" sheetId="1" state="visible" r:id="rId2"/>
@@ -197,6 +197,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -227,7 +228,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,19 +268,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEF413D"/>
-        <bgColor rgb="FFF3715A"/>
+        <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFEDCC6"/>
         <bgColor rgb="FFFCD3C1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3715A"/>
-        <bgColor rgb="FFEF413D"/>
       </patternFill>
     </fill>
   </fills>
@@ -420,7 +415,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -534,10 +529,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -593,7 +584,7 @@
       <rgbColor rgb="FFFEDCC6"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFF3715A"/>
+      <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFBCE4E5"/>
       <rgbColor rgb="FF000080"/>
@@ -644,9 +635,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>222120</xdr:colOff>
+      <xdr:colOff>221760</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>118440</xdr:rowOff>
+      <xdr:rowOff>118080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -659,8 +650,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5115600" y="59040"/>
-          <a:ext cx="5557680" cy="2985480"/>
+          <a:off x="5114160" y="59040"/>
+          <a:ext cx="5557680" cy="2985120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -686,9 +677,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
+      <xdr:colOff>639720</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>41040</xdr:rowOff>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -701,8 +692,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4348440" y="0"/>
-          <a:ext cx="6480720" cy="3265920"/>
+          <a:off x="4347000" y="0"/>
+          <a:ext cx="6480360" cy="3265560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -724,7 +715,7 @@
   </sheetPr>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -732,8 +723,8 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="5.04"/>
@@ -1255,7 +1246,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.55"/>
@@ -1818,7 +1809,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
@@ -1834,12 +1825,12 @@
   <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.03"/>
@@ -2040,7 +2031,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
@@ -2056,16 +2047,16 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2123,7 +2114,7 @@
         <v>0.451795292949584</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="27" t="n">
         <v>0.204206341109061</v>
       </c>
     </row>
@@ -2138,7 +2129,7 @@
         <v>0.38390859100631</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="27" t="n">
         <v>0.149140429421121</v>
       </c>
     </row>
@@ -2153,7 +2144,7 @@
         <v>0.141360716803706</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="27" t="n">
         <v>0.0286815887776057</v>
       </c>
     </row>
@@ -2168,7 +2159,7 @@
         <v>0.267124391163386</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="29" t="n">
+      <c r="E7" s="4" t="n">
         <v>0.267167870076716</v>
       </c>
     </row>
@@ -2183,7 +2174,7 @@
         <v>0.142718737517431</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="29" t="n">
+      <c r="E8" s="4" t="n">
         <v>0.373624242378047</v>
       </c>
     </row>
@@ -2249,54 +2240,54 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="31" t="n">
+      <c r="B14" s="30" t="n">
         <v>2.531</v>
       </c>
-      <c r="C14" s="31" t="n">
+      <c r="C14" s="30" t="n">
         <v>1.428</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32" t="n">
+      <c r="D14" s="30"/>
+      <c r="E14" s="31" t="n">
         <f aca="false">SUM(E2:E11)</f>
         <v>3.95934724849801</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="33" t="n">
+      <c r="B15" s="32" t="n">
         <f aca="false">B14/$B$16</f>
         <v>0.2531</v>
       </c>
-      <c r="C15" s="33" t="n">
+      <c r="C15" s="32" t="n">
         <f aca="false">C14/$B$16</f>
         <v>0.1428</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="34" t="n">
+      <c r="D15" s="30"/>
+      <c r="E15" s="33" t="n">
         <f aca="false">SUM(B15:C15)</f>
         <v>0.3959</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="31" t="n">
+      <c r="B16" s="30" t="n">
         <v>10</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
